--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4013133.952368137</v>
+        <v>4010883.133982243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>110.1458031968981</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.886038567534</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>35.7263815211921</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>7.51168964393492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>83.40252578334311</v>
       </c>
       <c r="H8" t="n">
-        <v>105.0839683962668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.621576176024011</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>181.4487096095778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>133.4004220955977</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>116.6286547214871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796249</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.21455103355472</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.41180510878515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>49.14816773710324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>205.3712164508587</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.2984856025742</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>222.1522801639397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>11.16818915334145</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>171.9731989154905</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
         <v>117.0247149940946</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
-        <v>107.7570627986866</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>5.103394920172406</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>35.52782197061681</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S37" t="n">
-        <v>40.38339617662948</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T37" t="n">
         <v>191.1526162473326</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>33.34631159897327</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>62.74305238156573</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
@@ -3898,7 +3898,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>134.8859069379102</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
@@ -3907,16 +3907,16 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>25.95044981276924</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
@@ -4141,7 +4141,7 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S46" t="n">
-        <v>100.9192158178401</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
         <v>191.1526162473326</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>119.2805664340134</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>961.9755262757901</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>576.1872736775458</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>165.2013688879383</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4513,7 +4513,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.6683391887233</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
         <v>343.360151857325</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2387.398480458968</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2056.335593115397</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1053.350203651865</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>684.3876867114529</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>684.3876867114529</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>298.5994341132087</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>291.6539333640052</v>
       </c>
       <c r="G8" t="n">
-        <v>313.5543804477666</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1053.350203651865</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,16 +5045,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
         <v>4260.556453353931</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,28 +5130,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
         <v>95.56103444839442</v>
@@ -5200,19 +5200,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2373.979363934262</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.758180993045</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.7425750505954</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>637.8063921226884</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>487.6897527103526</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>339.7766591279595</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5440,46 +5440,46 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1821.595564998039</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1532.492698123683</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.808209917796</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>988.391039880835</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>988.3910398808351</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.3910398808351</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,16 +5498,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089268</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,19 +5519,19 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1472.533259768727</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N17" t="n">
-        <v>3195.001976422504</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O17" t="n">
-        <v>4074.966626751958</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4469.740993109136</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.0030950818859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.850859990634</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.433689953673</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.444139055656</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6515599121257</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,16 +5753,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M20" t="n">
-        <v>2016.310259422546</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>2996.062531649192</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
         <v>3757.393206660291</v>
@@ -5823,28 +5823,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689406</v>
+        <v>425.7583423057194</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410337</v>
+        <v>256.8221593778125</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>256.8221593778125</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>108.9090657954194</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.9090657954194</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.9090657954194</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.137545020213</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X22" t="n">
-        <v>958.1479941221957</v>
+        <v>646.5509214492495</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991804</v>
+        <v>425.7583423057194</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027647</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>590.1253288168955</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W25" t="n">
-        <v>1220.555923688683</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X25" t="n">
-        <v>992.5663727906654</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="Y25" t="n">
-        <v>771.7737936471352</v>
+        <v>412.4103109586945</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6218,7 +6218,7 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6230,22 +6230,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.9835782646</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O26" t="n">
-        <v>3629.948228594054</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.3002584566048</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C28" t="n">
-        <v>390.3640755286979</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
         <v>390.3640755286979</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1555.333704888478</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1266.230838014121</v>
       </c>
       <c r="V28" t="n">
-        <v>1251.158472467335</v>
+        <v>1011.546349808234</v>
       </c>
       <c r="W28" t="n">
-        <v>961.7413024303746</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="X28" t="n">
-        <v>961.7413024303746</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y28" t="n">
-        <v>740.9487232868445</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1729.091615892343</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2707.641918722172</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689404</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839445</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839445</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991801</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>919.9473678912366</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M32" t="n">
-        <v>2707.641918722172</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780954</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>780.8607737791824</v>
+        <v>659.4272990424388</v>
       </c>
       <c r="C34" t="n">
-        <v>640.607755526868</v>
+        <v>519.1742807901245</v>
       </c>
       <c r="D34" t="n">
-        <v>519.1742807901248</v>
+        <v>519.1742807901245</v>
       </c>
       <c r="E34" t="n">
-        <v>399.9443518833243</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="F34" t="n">
-        <v>281.7375690610062</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
         <v>164.2035469544565</v>
@@ -6856,16 +6856,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6880,28 +6880,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>2072.396905714618</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>2072.396905714618</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1811.977203515854</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1585.97587998556</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1325.241874624192</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.935488401767</v>
+        <v>817.5475435608965</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.8260739338295</v>
+        <v>812.3925991970859</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6938,19 +6938,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3484.372139114998</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
@@ -7014,16 +7014,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320248</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,13 +7053,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>594.6842391665705</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="C37" t="n">
-        <v>454.4312209142561</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="D37" t="n">
-        <v>332.9977461775129</v>
+        <v>589.5514402337509</v>
       </c>
       <c r="E37" t="n">
-        <v>213.7678172707122</v>
+        <v>470.3215113269504</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>352.1147285046326</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7096,16 +7096,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L37" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883476</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7117,28 +7117,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S37" t="n">
-        <v>2079.303821856887</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T37" t="n">
-        <v>1886.220371102006</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1625.800668903242</v>
+        <v>1503.589258674985</v>
       </c>
       <c r="V37" t="n">
-        <v>1399.799345372948</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1139.06534001158</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>939.7589537891552</v>
+        <v>817.5475435608973</v>
       </c>
       <c r="Y37" t="n">
-        <v>747.6495393212176</v>
+        <v>625.4381290929598</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,25 +7175,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.7035722600729</v>
+        <v>625.4381290929596</v>
       </c>
       <c r="C40" t="n">
-        <v>586.4505540077585</v>
+        <v>625.4381290929596</v>
       </c>
       <c r="D40" t="n">
-        <v>465.0170792710153</v>
+        <v>504.0046543562162</v>
       </c>
       <c r="E40" t="n">
-        <v>345.7871503642147</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F40" t="n">
-        <v>227.5803675418967</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G40" t="n">
-        <v>227.5803675418967</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
         <v>1487.357919090857</v>
@@ -7354,28 +7354,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.239704195508</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1757.820001996745</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1531.81867846645</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.084673105082</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.778286882658</v>
+        <v>817.5475435608971</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.66887241472</v>
+        <v>625.4381290929596</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>413.1422297553291</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1067.865561890629</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1518.899775139038</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2497.450077968866</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>828.5589991907748</v>
+        <v>472.472828938312</v>
       </c>
       <c r="C43" t="n">
-        <v>688.3059809384604</v>
+        <v>336.2244380919381</v>
       </c>
       <c r="D43" t="n">
-        <v>566.8725062017171</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E43" t="n">
-        <v>447.6425772949165</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>329.4357944725987</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>190.4161225229103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,16 +7570,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7591,28 +7591,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2120.095131126211</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>2120.095131126211</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1859.675428927447</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1633.674105397152</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1372.940100035784</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>1173.633713813359</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5242993454219</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7652,46 +7652,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1729.091615892343</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,34 +7743,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>594.6842391665703</v>
+        <v>544.0968227658318</v>
       </c>
       <c r="C46" t="n">
-        <v>454.4312209142558</v>
+        <v>403.8438045135175</v>
       </c>
       <c r="D46" t="n">
-        <v>332.9977461775128</v>
+        <v>282.4103297767743</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7678172707122</v>
+        <v>282.4103297767743</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,13 +7810,13 @@
         <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
         <v>1814.799887709819</v>
@@ -7828,28 +7828,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2079.303821856888</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1886.220371102006</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1625.800668903242</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1399.799345372948</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1139.06534001158</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>939.7589537891549</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.6495393212174</v>
+        <v>697.0621229204789</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M11" t="n">
-        <v>29.61882225792147</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>285.7011105564208</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>285.0508825989999</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.017475755657159</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,19 +9401,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>260.9678829613756</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>64.28566532692452</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>36.48628322062041</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="P26" t="n">
-        <v>238.2160185885842</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>342.3170758598132</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278961</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>374.1693948021951</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>89.5245633896194</v>
+        <v>60.0189488469199</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>29.61882225792135</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>130.0020851999084</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>342.3170758598132</v>
       </c>
       <c r="M44" t="n">
-        <v>96.13798426930737</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.4891296437041</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>86.14852718057148</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>135.5089886023409</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>131.5404638807661</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.1728482433097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>118.0986533615246</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>13.21343690123607</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>101.250463673595</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>29.98536315988835</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.5414662356957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.61145443660424</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.61562950391868</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>185.0849254030857</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.9078251824838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100144</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>120.9892961259758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.69131801875925</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.61562950391845</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100144</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.964581131881033</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>90.40823207271491</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100144</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.45347648476518</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>70.90775388924473</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="F2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="G2" t="n">
         <v>774309.4844296172</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>774309.4844296173</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="J2" t="n">
         <v>774309.4844296174</v>
       </c>
-      <c r="H2" t="n">
-        <v>774309.4844296172</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="J2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774309.4844296169</v>
-      </c>
       <c r="L2" t="n">
-        <v>790151.0807671059</v>
+        <v>790151.0807671058</v>
       </c>
       <c r="M2" t="n">
-        <v>790151.0807671061</v>
+        <v>790151.0807671064</v>
       </c>
       <c r="N2" t="n">
-        <v>790151.0807671068</v>
+        <v>790151.0807671067</v>
       </c>
       <c r="O2" t="n">
-        <v>790151.0807671059</v>
+        <v>790151.0807671064</v>
       </c>
       <c r="P2" t="n">
-        <v>790151.0807671057</v>
+        <v>790151.0807671058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.275352772026089e-11</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306931</v>
+        <v>22717.06642306932</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>27492.3010319063</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="O4" t="n">
+        <v>27492.3010319063</v>
+      </c>
+      <c r="P4" t="n">
         <v>27492.30103190631</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740578</v>
+        <v>-55659.91851740566</v>
       </c>
       <c r="C6" t="n">
-        <v>534307.960697139</v>
+        <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971388</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.94013669305</v>
+        <v>-67667.13562691887</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567137</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567139</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567136</v>
+        <v>659710.2783664879</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567134</v>
+        <v>659710.2783664879</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.2546641207</v>
+        <v>483287.0591738951</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567134</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="L6" t="n">
-        <v>641170.9437370154</v>
+        <v>641144.3677245779</v>
       </c>
       <c r="M6" t="n">
-        <v>534245.6953211401</v>
+        <v>534219.1193087031</v>
       </c>
       <c r="N6" t="n">
-        <v>663888.0101600856</v>
+        <v>663861.4341476482</v>
       </c>
       <c r="O6" t="n">
-        <v>663888.0101600847</v>
+        <v>663861.4341476478</v>
       </c>
       <c r="P6" t="n">
-        <v>663888.0101600845</v>
+        <v>663861.4341476472</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>303.6383668238969</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.25950038248487</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>215.4977859870972</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>244.6259536798931</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>330.3816442374519</v>
       </c>
       <c r="H8" t="n">
-        <v>218.8388043680903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.9938968421883</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.003303175209659e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M11" t="n">
-        <v>568.5399380881482</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>824.6222263866475</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>837.3527180119112</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>693.8061329809163</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.8117805593766</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36121,19 +36121,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>769.0208838495947</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>519.8757797192567</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>588.7881186335319</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>631.5249572352669</v>
       </c>
       <c r="P26" t="n">
-        <v>636.978004807956</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>797.9071902521454</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>472.8298519832966</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>913.0905106324219</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M34" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
@@ -37306,22 +37306,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>597.5775642778385</v>
+        <v>568.071949735139</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190283</v>
+        <v>73.9747496419029</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
@@ -37543,19 +37543,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>581.9206576708328</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>320.7890861686209</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38020,10 +38020,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>797.9071902521454</v>
       </c>
       <c r="M44" t="n">
-        <v>635.0591000995341</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38035,10 +38035,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
@@ -38184,7 +38184,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
         <v>330.7494632514764</v>
